--- a/biology/Zoologie/Aaadonta_kinlochi/Aaadonta_kinlochi.xlsx
+++ b/biology/Zoologie/Aaadonta_kinlochi/Aaadonta_kinlochi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aaadonta kinlochi est une espèce de mollusques[1],[2] gastéropodes terrestres de la famille des Endodontidae. Cet escargot est endémique des Palaos[3], où il était connu à Angaur et sur l’île d’Ulong. S’il existe encore, il est menacé par la destruction et la modification de son habitat forestier tropical humide de plaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaadonta kinlochi est une espèce de mollusques, gastéropodes terrestres de la famille des Endodontidae. Cet escargot est endémique des Palaos, où il était connu à Angaur et sur l’île d’Ulong. S’il existe encore, il est menacé par la destruction et la modification de son habitat forestier tropical humide de plaine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aaadonta kinlochi a été décrite en 1976 par le malacologiste américain Alan Solem (d)[4] (1931-1990) sur la base de près de 180 spécimens tous découverts à Angaur[5]. Une trentaine seulement étaient adultes, les autres spécimens étant des juvéniles et douze seulement ont été capturés vivants[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aaadonta kinlochi a été décrite en 1976 par le malacologiste américain Alan Solem (d) (1931-1990) sur la base de près de 180 spécimens tous découverts à Angaur. Une trentaine seulement étaient adultes, les autres spécimens étant des juvéniles et douze seulement ont été capturés vivants.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, kinlochi, lui a été donnée en l'honneur de George G. Kinloch[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, kinlochi, lui a été donnée en l'honneur de George G. Kinloch.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Alan Solem, Endodontoid land snails from Pacific Islands (Mollusca : Pulmonata : Sigmurethra). Part I, Family Endodontidae, Chicago, Field Museum of Natural History, 1976, 540 p. (OCLC 30717826, DOI 10.5962/BHL.TITLE.2554, lire en ligne)</t>
         </is>
